--- a/commands/TT Macros/L2_packet table.xlsx
+++ b/commands/TT Macros/L2_packet table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="First run" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,11 @@
     <sheet name="ECAL Test 1" sheetId="5" r:id="rId5"/>
     <sheet name="ECAL Test 2" sheetId="7" r:id="rId6"/>
     <sheet name="HV Test 1" sheetId="9" r:id="rId7"/>
+    <sheet name="New CMD test 12-14" sheetId="10" r:id="rId8"/>
+    <sheet name="New CMD test 12-17" sheetId="11" r:id="rId9"/>
+    <sheet name="New CMD test 12-17 Test 2" sheetId="12" r:id="rId10"/>
+    <sheet name="DAQ Test 12-19, T5" sheetId="13" r:id="rId11"/>
+    <sheet name="DAQ Test 12-19 Tfin" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="62">
   <si>
     <t>Command</t>
   </si>
@@ -175,6 +180,48 @@
   <si>
     <t>pause 5</t>
   </si>
+  <si>
+    <t>&lt;&lt;&lt;this will be a pause, so more packets are expected</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt; I updated the format of this command to also take the module number</t>
+  </si>
+  <si>
+    <t>The command failure was appropriate</t>
+  </si>
+  <si>
+    <t>BREAK_0</t>
+  </si>
+  <si>
+    <t>DAQ_0_1</t>
+  </si>
+  <si>
+    <t>DAQ_0_2</t>
+  </si>
+  <si>
+    <t>DAQ_0_765</t>
+  </si>
+  <si>
+    <t>START_0_123456_30</t>
+  </si>
+  <si>
+    <t>MNS_RANDOM_GARBAGE_0</t>
+  </si>
+  <si>
+    <t>TRG_0_8765</t>
+  </si>
+  <si>
+    <t>SUCCESS++</t>
+  </si>
+  <si>
+    <t>pause 4</t>
+  </si>
+  <si>
+    <t>MNS_RANDOM_GARBAGE_1</t>
+  </si>
+  <si>
+    <t>APID Recv</t>
+  </si>
 </sst>
 </file>
 
@@ -202,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +264,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -254,6 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -538,7 +592,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="A1:F54"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,12 +1483,3952 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(C2=D2,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E10" si="0">IF(C3=D3,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f>IF(C11=D11,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <f t="shared" ref="E12:E41" si="1">IF(C12=D12,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="9"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="9"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="9"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E45" s="5"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="A1:G81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E2" t="str">
+        <f>IF(C2=D2,"Match","")</f>
+        <v>Match</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(C2=F2,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E3" t="str">
+        <f>IF(C3=D3,"Match","")</f>
+        <v>Match</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(C3=F3,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:G67" si="0">IF(C4=D4,"Match","")</f>
+        <v>Match</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G67" si="1">IF(C4=F4,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F50" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F53" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F60" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F61" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F63" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F64" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F65" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F66" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" t="str">
+        <f>IF(C67=D67,"Match","")</f>
+        <v>Match</v>
+      </c>
+      <c r="F67" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" ref="E68:G81" si="2">IF(C68=D68,"Match","")</f>
+        <v>Match</v>
+      </c>
+      <c r="F68" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" ref="G68:G81" si="3">IF(C68=F68,"Match","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+      <c r="F69" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+      <c r="F70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+      <c r="F71" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+      <c r="F72" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+      <c r="F73" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+      <c r="F74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+      <c r="F75" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+      <c r="F76" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+      <c r="F77" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+      <c r="F78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F79" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="str">
+        <f>IF(C2=D2,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="str">
+        <f>IF(C3=D3,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="str">
+        <f>IF(C4=D4,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="str">
+        <f>IF(C5=D5,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="str">
+        <f>IF(C6=D6,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="str">
+        <f>IF(C7=D7,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="str">
+        <f>IF(C8=D8,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="str">
+        <f>IF(C9=D9,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="str">
+        <f>IF(C10=D10,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="str">
+        <f>IF(C11=D11,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="str">
+        <f>IF(C12=D12,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="str">
+        <f>IF(C13=D13,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="str">
+        <f>IF(C14=D14,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="str">
+        <f>IF(C15=D15,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="str">
+        <f>IF(C16=D16,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="str">
+        <f>IF(C17=D17,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="str">
+        <f>IF(C18=D18,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="str">
+        <f>IF(C19=D19,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="str">
+        <f>IF(C20=D20,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="str">
+        <f>IF(C21=D21,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="str">
+        <f>IF(C22=D22,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="str">
+        <f>IF(C23=D23,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="str">
+        <f>IF(C24=D24,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="str">
+        <f>IF(C25=D25,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="str">
+        <f>IF(C26=D26,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="str">
+        <f>IF(C27=D27,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="str">
+        <f>IF(C28=D28,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="str">
+        <f>IF(C29=D29,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="str">
+        <f>IF(C30=D30,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="str">
+        <f>IF(C31=D31,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="str">
+        <f>IF(C32=D32,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="str">
+        <f>IF(C33=D33,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="str">
+        <f>IF(C34=D34,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="str">
+        <f>IF(C35=D35,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="str">
+        <f>IF(C36=D36,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="str">
+        <f>IF(C37=D37,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="str">
+        <f>IF(C38=D38,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" t="str">
+        <f>IF(C39=D39,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="str">
+        <f>IF(C40=D40,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="str">
+        <f>IF(C41=D41,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="str">
+        <f>IF(C42=D42,"Match","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="str">
+        <f>IF(C43=D43,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="str">
+        <f>IF(C44=D44,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="str">
+        <f>IF(C45=D45,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="str">
+        <f>IF(C46=D46,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="str">
+        <f>IF(C47=D47,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="str">
+        <f>IF(C48=D48,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="str">
+        <f>IF(C49=D49,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="str">
+        <f>IF(C50=D50,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="str">
+        <f>IF(C51=D51,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" t="str">
+        <f>IF(C52=D52,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" t="str">
+        <f>IF(C53=D53,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="str">
+        <f>IF(C54=D54,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" t="str">
+        <f>IF(C55=D55,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="str">
+        <f>IF(C56=D56,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" t="str">
+        <f>IF(C57=D57,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="str">
+        <f>IF(C58=D58,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="str">
+        <f>IF(C59=D59,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" t="str">
+        <f>IF(C60=D60,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="str">
+        <f>IF(C61=D61,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="str">
+        <f>IF(C62=D62,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" t="str">
+        <f>IF(C63=D63,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" t="str">
+        <f>IF(C64=D64,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" t="str">
+        <f>IF(C65=D65,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" t="str">
+        <f>IF(C66=D66,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" t="str">
+        <f>IF(C67=D67,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" t="str">
+        <f>IF(C68=D68,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="str">
+        <f>IF(C69=D69,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="str">
+        <f>IF(C70=D70,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" t="str">
+        <f>IF(C71=D71,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" t="str">
+        <f>IF(C72=D72,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" t="str">
+        <f>IF(C73=D73,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" t="str">
+        <f>IF(C74=D74,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" t="str">
+        <f>IF(C75=D75,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" t="str">
+        <f>IF(C76=D76,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="str">
+        <f>IF(C77=D77,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" t="str">
+        <f>IF(C78=D78,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" t="str">
+        <f>IF(C79=D79,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E80" t="str">
+        <f>IF(C80=D80,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E81" t="str">
+        <f>IF(C81=D81,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection sqref="A1:F54"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,7 +6334,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4912,7 +8906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -5627,4 +9621,2091 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E2" t="str">
+        <f>IF(C2=D2,"Match","")</f>
+        <v>Match</v>
+      </c>
+      <c r="N2" t="str">
+        <f>IF(L2=M2,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E54" si="0">IF(C3=D3,"Match","")</f>
+        <v>Match</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="str">
+        <f>IF(C3=M3,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="str">
+        <f>IF(C4=M4,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" ref="N5:N11" si="1">IF(C5=M5,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f>IF(C11=D11,"Match","")</f>
+        <v>Match</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" t="str">
+        <f>IF(C14=M14,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" t="str">
+        <f>IF(C15=M15,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" ref="N16:N45" si="2">IF(C16=M16,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" t="str">
+        <f>IF(C18=M18,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" t="str">
+        <f>IF(C21=M21,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" t="str">
+        <f>IF(C24=M24,"Match","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M29" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M32" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M34" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M35" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M36" t="s">
+        <v>7</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M37" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M39" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M40" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M41" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M42" t="s">
+        <v>7</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="M43" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="M45" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="N46" t="str">
+        <f t="shared" ref="N46:N47" si="3">IF(C46=M46,"Match","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="N47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E2" t="str">
+        <f>IF(C2=D2,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E54" si="0">IF(C3=D3,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f>IF(C11=D11,"Match","")</f>
+        <v>Match</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="5" t="str">
+        <f>IF(C12=D13,"Match","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f>IF(C13=D13,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f>IF(C14=D14,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f t="shared" ref="E15:E44" si="1">IF(C15=D15,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>